--- a/data/2022/Fell/Extracted Ingleborough.xlsx
+++ b/data/2022/Fell/Extracted Ingleborough.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheel\source\repos\InterClub\data\2022\Fell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337E536-FDCC-46B1-9028-AE571D1C6A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC9ADE-747A-4D05-95F4-B427629DA2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,16 +607,6 @@
         <rFont val="Carlito"/>
         <family val="2"/>
       </rPr>
-      <t>Hutton Roof</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Carlito"/>
-        <family val="2"/>
-      </rPr>
       <t>Two Lads</t>
     </r>
   </si>
@@ -628,6 +618,23 @@
         <family val="2"/>
       </rPr>
       <t>Ingleborough</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hutton Roof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Carlito"/>
+      </rPr>
+      <t xml:space="preserve"> Crags</t>
     </r>
   </si>
 </sst>
@@ -900,6 +907,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -916,19 +935,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,19 +1465,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="N1" s="8" t="s">
         <v>28</v>
       </c>
@@ -7046,22 +7055,22 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="35">
         <v>15</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="35">
         <v>4</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="35">
         <v>19</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="35">
         <v>2</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="35">
         <v>1</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="35">
         <v>11</v>
       </c>
     </row>
@@ -7069,22 +7078,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="35">
         <v>22</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="35">
         <v>5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="35">
         <v>25</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="35">
         <v>6</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="35">
         <v>3</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="35">
         <v>30</v>
       </c>
     </row>
@@ -7092,19 +7101,19 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="35">
         <v>23</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="35">
         <v>12</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="35">
         <v>26</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="35">
         <v>7</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="35">
         <v>9</v>
       </c>
     </row>
@@ -7112,13 +7121,13 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="35">
         <v>13</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="35">
         <v>8</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="35">
         <v>14</v>
       </c>
     </row>
@@ -7126,13 +7135,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="35">
         <v>24</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="35">
         <v>10</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="35">
         <v>17</v>
       </c>
     </row>
@@ -7180,22 +7189,22 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="35">
         <v>5</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="35">
         <v>1</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="35">
         <v>3</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="35">
         <v>2</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="35">
         <v>10</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="35">
         <v>11</v>
       </c>
     </row>
@@ -7203,10 +7212,10 @@
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="35">
         <v>6</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="35">
         <v>4</v>
       </c>
     </row>
@@ -7214,10 +7223,10 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="35">
         <v>7</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="35">
         <v>8</v>
       </c>
     </row>
@@ -7290,22 +7299,22 @@
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="35">
         <v>10</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="35">
         <v>2</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="35">
         <v>14</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="35">
         <v>1</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="35">
         <v>9</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="35">
         <v>6</v>
       </c>
     </row>
@@ -7313,19 +7322,19 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="35">
         <v>16</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="35">
         <v>7</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="35">
         <v>19</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="35">
         <v>3</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="35">
         <v>12</v>
       </c>
     </row>
@@ -7333,19 +7342,19 @@
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="35">
         <v>17</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="35">
         <v>8</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="35">
         <v>20</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="35">
         <v>4</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="35">
         <v>13</v>
       </c>
     </row>
@@ -7353,13 +7362,13 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="35">
         <v>18</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="35">
         <v>5</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="35">
         <v>15</v>
       </c>
     </row>
@@ -7392,19 +7401,19 @@
       <c r="B40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="35">
         <v>7</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="35">
         <v>1</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="35">
         <v>13</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="35">
         <v>2</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="35">
         <v>9</v>
       </c>
     </row>
@@ -7412,19 +7421,19 @@
       <c r="A41" s="1">
         <v>2</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="35">
         <v>11</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="35">
         <v>5</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="35">
         <v>14</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="35">
         <v>3</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="35">
         <v>10</v>
       </c>
     </row>
@@ -7432,13 +7441,13 @@
       <c r="A42" s="1">
         <v>3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="35">
         <v>6</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="35">
         <v>4</v>
       </c>
-      <c r="K42" s="41">
+      <c r="K42" s="35">
         <v>15</v>
       </c>
     </row>
@@ -7466,13 +7475,13 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="35">
         <v>1</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="35">
         <v>4</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="35">
         <v>2</v>
       </c>
     </row>
@@ -7480,13 +7489,13 @@
       <c r="A48" s="1">
         <v>2</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="35">
         <v>3</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="35">
         <v>5</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="35">
         <v>6</v>
       </c>
     </row>
@@ -7543,13 +7552,13 @@
       <c r="A3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="35">
         <v>33</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="35">
         <v>13</v>
       </c>
     </row>
@@ -7557,13 +7566,13 @@
       <c r="A4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="35">
         <v>44</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="35">
         <v>35</v>
       </c>
     </row>
@@ -7571,13 +7580,13 @@
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="35">
         <v>58</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="35">
         <v>49</v>
       </c>
     </row>
@@ -7585,13 +7594,13 @@
       <c r="A6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="35">
         <v>60</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="35">
         <v>43</v>
       </c>
     </row>
@@ -7599,13 +7608,13 @@
       <c r="A7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="35">
         <v>70</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="35">
         <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -7616,13 +7625,13 @@
       <c r="A8" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="35">
         <v>41</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="35">
         <v>6</v>
       </c>
     </row>
@@ -7630,13 +7639,13 @@
       <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="35">
         <v>0</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7652,13 +7661,13 @@
       <c r="A13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="35">
         <v>9</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="35">
         <v>4</v>
       </c>
     </row>
@@ -7666,13 +7675,13 @@
       <c r="A14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="35">
         <v>12</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="35">
         <v>8</v>
       </c>
     </row>
@@ -7680,13 +7689,13 @@
       <c r="A15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="35">
         <v>34</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="35">
         <v>9</v>
       </c>
     </row>
@@ -7694,13 +7703,13 @@
       <c r="A16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="35">
         <v>18</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7708,13 +7717,13 @@
       <c r="A17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="35">
         <v>27</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7722,13 +7731,13 @@
       <c r="A18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="35">
         <v>0</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7736,13 +7745,13 @@
       <c r="A19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="35">
         <v>0</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7758,7 +7767,7 @@
       <c r="A23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="35">
         <v>14</v>
       </c>
       <c r="E23" s="3"/>
@@ -7767,7 +7776,7 @@
       <c r="A24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="35">
         <v>16</v>
       </c>
       <c r="E24" s="3"/>
@@ -7776,7 +7785,7 @@
       <c r="A25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="35">
         <v>1</v>
       </c>
       <c r="E25" s="3"/>
@@ -7785,7 +7794,7 @@
       <c r="A26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="35">
         <v>5</v>
       </c>
       <c r="E26" s="3"/>
@@ -7794,7 +7803,7 @@
       <c r="A27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="35">
         <v>10</v>
       </c>
       <c r="E27" s="3"/>
@@ -7803,7 +7812,7 @@
       <c r="A28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="35">
         <v>11</v>
       </c>
       <c r="E28" s="3"/>
@@ -7812,7 +7821,7 @@
       <c r="A29" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="35">
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
@@ -7840,7 +7849,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.25"/>
@@ -7849,19 +7858,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7872,142 +7881,142 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="14.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="37">
         <v>7</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>6</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="37">
         <v>7</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="37">
         <v>5</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="37">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="37">
         <v>6</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <v>5</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="37">
         <v>5</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <v>6</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="37">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="37">
         <v>5</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="37">
         <v>4</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="37">
         <v>3</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="37">
         <v>7</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="37">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="37">
         <v>7</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="37">
         <v>6</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="37">
         <v>2</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="37">
         <v>3</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="37">
         <v>4</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="37">
         <v>4</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="37">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="37">
         <v>0</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="37">
         <v>2</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="37">
         <v>2</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="37">
         <v>3</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="37">
         <v>0</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="37">
         <v>0</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="37">
         <v>0</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8018,142 +8027,142 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="14.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="37">
         <v>7</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="37">
         <v>6</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="37">
         <v>3</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="37">
         <v>7</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="37">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="37">
         <v>7</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="37">
         <v>5</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="37">
         <v>4</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="37">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="37">
         <v>2</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="37">
         <v>6</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="37">
         <v>3</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="37">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="37">
         <v>0</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="37">
         <v>3</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="37">
         <v>7</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="37">
         <v>5</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="37">
         <v>0</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="37">
         <v>4</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="37">
         <v>4</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="37">
         <v>6</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="37">
         <v>0</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="37">
         <v>5</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="37">
         <v>2</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="37">
         <v>2</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="37">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="37">
         <v>0</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="37">
         <v>0</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="37">
         <v>0</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8170,142 +8179,142 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" ht="14.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="43">
+      <c r="B31" s="37">
         <v>7</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="37">
         <v>7</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="37">
         <v>7</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="37">
         <v>6</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="37">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="37">
         <v>6</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="37">
         <v>3</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="37">
         <v>6</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="37">
         <v>5</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="37">
         <v>5</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="37">
         <v>5</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="37">
         <v>3</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="37">
         <v>7</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="37">
         <v>4</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="37">
         <v>4</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="37">
         <v>4</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="37">
         <v>4</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="43">
+      <c r="B35" s="37">
         <v>0</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="37">
         <v>6</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="37">
         <v>5</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="37">
         <v>2</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="37">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="37">
         <v>0</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="37">
         <v>2</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="37">
         <v>2</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="37">
         <v>3</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="43">
+      <c r="B37" s="37">
         <v>0</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="37">
         <v>0</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="37">
         <v>0</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="37">
         <v>0</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8316,142 +8325,142 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" ht="14.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="37">
         <v>7</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="37">
         <v>6</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="37">
         <v>7</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="37">
         <v>6</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="37">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="37">
         <v>5</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="37">
         <v>7</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="37">
         <v>3</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="37">
         <v>7</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="37">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="37">
         <v>6</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="37">
         <v>3</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="37">
         <v>6</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="37">
         <v>5</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="37">
         <v>0</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="37">
         <v>4</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="37">
         <v>4</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="37">
         <v>4</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="37">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="37">
         <v>0</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="37">
         <v>5</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="37">
         <v>5</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="37">
         <v>0</v>
       </c>
-      <c r="F44" s="43">
+      <c r="F44" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="37">
         <v>0</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="37">
         <v>2</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="37">
         <v>2</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="37">
         <v>3</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="37">
         <v>0</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="37">
         <v>0</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="37">
         <v>0</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="37">
         <v>0</v>
       </c>
-      <c r="F46" s="43">
+      <c r="F46" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8462,142 +8471,142 @@
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="43">
+      <c r="B49" s="37">
         <v>6</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="37">
         <v>6</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="37">
         <v>7</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="37">
         <v>7</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="37">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="37">
         <v>7</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="37">
         <v>0</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="37">
         <v>6</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="37">
         <v>6</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="37">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="43">
+      <c r="B51" s="37">
         <v>0</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="37">
         <v>4</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="37">
         <v>4</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="37">
         <v>5</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="37">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="37">
         <v>0</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="37">
         <v>7</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="37">
         <v>3</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="37">
         <v>0</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="37">
         <v>0</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="37">
         <v>5</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="37">
         <v>5</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="37">
         <v>0</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="37">
         <v>5</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="37">
         <v>0</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="37">
         <v>0</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="37">
         <v>0</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="43">
+      <c r="B55" s="37">
         <v>0</v>
       </c>
-      <c r="C55" s="43">
+      <c r="C55" s="37">
         <v>0</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="37">
         <v>0</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="37">
         <v>0</v>
       </c>
-      <c r="F55" s="43">
+      <c r="F55" s="37">
         <v>0</v>
       </c>
     </row>
